--- a/data/trans_camb/P40_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.175681864827727</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.66034385041195</v>
+        <v>-2.660343850411961</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.3565637139115174</v>
@@ -664,7 +664,7 @@
         <v>-0.4192280409019977</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.181633493322012</v>
+        <v>-4.181633493322002</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.101434706027712</v>
+        <v>-5.011031397411456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.840178108989715</v>
+        <v>-3.601218428725431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.553368190512805</v>
+        <v>-9.698489490675858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.834396442520807</v>
+        <v>-4.376953671594879</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.814245462838964</v>
+        <v>-6.625284344452929</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.992673430486835</v>
+        <v>-7.436323093585316</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.501552435809283</v>
+        <v>-3.420999679763528</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.497074772908901</v>
+        <v>-3.50771828572555</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.36221653447233</v>
+        <v>-6.917923928563517</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.506195220260043</v>
+        <v>3.315792634005768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.407125361602447</v>
+        <v>4.331238787330165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9334014601025744</v>
+        <v>-1.109670866724286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.002619783488963</v>
+        <v>4.648014527895735</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.00949710393896</v>
+        <v>3.478038574662359</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.258215158177312</v>
+        <v>1.333994128914254</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.735092712634606</v>
+        <v>2.996225373161184</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.78383850631023</v>
+        <v>2.586174226782551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.369715830203856</v>
+        <v>-1.127287278983593</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.01630504874318408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.03689521583370934</v>
+        <v>-0.03689521583370949</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.004614500293285658</v>
@@ -769,7 +769,7 @@
         <v>-0.005425476127320965</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.05411697328835868</v>
+        <v>-0.05411697328835853</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06002734857752579</v>
+        <v>-0.05973318380342856</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04490040274827838</v>
+        <v>-0.04270519939921618</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1132823872665626</v>
+        <v>-0.115956143719362</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06444047634445137</v>
+        <v>-0.05838640589583066</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07807989673493357</v>
+        <v>-0.08853768087795875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09394123533514885</v>
+        <v>-0.09945674808409929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04462855648959944</v>
+        <v>-0.04319441572461075</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04471955373483753</v>
+        <v>-0.04389476203270329</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.09347066204220558</v>
+        <v>-0.08859089921577581</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04370379740448825</v>
+        <v>0.0406887243573681</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05480271798241955</v>
+        <v>0.05441486976231901</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01165161469914637</v>
+        <v>-0.01370827232146096</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07143778917346501</v>
+        <v>0.06687019938082495</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05606731619652939</v>
+        <v>0.04953143156179673</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01819192955899178</v>
+        <v>0.01928790458715937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03612047802548874</v>
+        <v>0.03940765540340675</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03681500825473841</v>
+        <v>0.03468269220165818</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.01787727623981003</v>
+        <v>-0.01497482792434786</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.388467079675762</v>
+        <v>-4.153700439771555</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.309148315121273</v>
+        <v>-3.220987323627431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.075553456033822</v>
+        <v>-3.866678471117347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.69612645789549</v>
+        <v>1.869637125125416</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.40919076974049</v>
+        <v>3.399270435628649</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8133043420147349</v>
+        <v>1.073141916532088</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3648911142801064</v>
+        <v>-0.168085347281948</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9680873751907798</v>
+        <v>1.436241285719568</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4013744243515139</v>
+        <v>-0.2572292868961786</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.373170512676366</v>
+        <v>2.519024795252996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.212403535505566</v>
+        <v>3.055743992099805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.624150452155599</v>
+        <v>2.583726509685504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.947474812960589</v>
+        <v>10.33799061613673</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.23668912349975</v>
+        <v>11.83283722805054</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.879421781504099</v>
+        <v>8.798773905651926</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.252294882849292</v>
+        <v>5.168240988838647</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.517941707951079</v>
+        <v>6.972751112071513</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.626722305707691</v>
+        <v>4.797996437606426</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05040953557998349</v>
+        <v>-0.04801811862204591</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.038369209668166</v>
+        <v>-0.03715811113011281</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04712405334203874</v>
+        <v>-0.04470604872603085</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02550308143694327</v>
+        <v>0.02674309409225866</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04698339901936631</v>
+        <v>0.04919798170822561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01154519103538248</v>
+        <v>0.0153152269132996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.004740635996533586</v>
+        <v>-0.002122402602158666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01224458912598569</v>
+        <v>0.01853580570722455</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.005171860922520731</v>
+        <v>-0.003189393975869942</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02840544381334683</v>
+        <v>0.03027447565528281</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03899854150169225</v>
+        <v>0.03688499523966669</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03196246149298695</v>
+        <v>0.03141775901703132</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1543366913189193</v>
+        <v>0.1566622743339393</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1861724248380588</v>
+        <v>0.1826489348040806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1358401486086256</v>
+        <v>0.1349863858828315</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07029049309134243</v>
+        <v>0.06921390128606567</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0867263308873449</v>
+        <v>0.09349302481470943</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.06225135721363292</v>
+        <v>0.065121625878293</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.4132139654670852</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.460879146210893</v>
+        <v>-2.460879146210881</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.281052413676776</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.643392699679691</v>
+        <v>-4.513115961506169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.528986138144456</v>
+        <v>-4.171669130070071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.705034319184289</v>
+        <v>-6.646617226583924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.926785936589891</v>
+        <v>-7.027457697018368</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.742738484767304</v>
+        <v>-2.163097107260719</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.592881484663461</v>
+        <v>-4.411869518915221</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.655755164340843</v>
+        <v>-4.613055144788095</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.303488068693319</v>
+        <v>-2.078542041678504</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.208596735680538</v>
+        <v>-4.136145861826609</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.353078041672674</v>
+        <v>3.480238538812932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.494625292946377</v>
+        <v>3.676196328561623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.511551939173812</v>
+        <v>1.379003663303945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.448870323330425</v>
+        <v>2.147094481032683</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.89301140085905</v>
+        <v>6.883841231609155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.178561955278353</v>
+        <v>4.158056830127844</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.447463163710478</v>
+        <v>1.604785315546472</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.725048746978487</v>
+        <v>4.117322906037788</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.780923341973475</v>
+        <v>1.699289242160069</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.004869477812663769</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02899997919619062</v>
+        <v>-0.02899997919619049</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.03019564835598993</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05348831205924359</v>
+        <v>-0.05246537684945537</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05220109575671288</v>
+        <v>-0.04837843996808135</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07702542345543661</v>
+        <v>-0.0763836390208523</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09025756478977404</v>
+        <v>-0.08997563351529937</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02338874207440646</v>
+        <v>-0.0289267293093623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05829151208125442</v>
+        <v>-0.0556976185342655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05699973293479118</v>
+        <v>-0.05685820151483528</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02826761747430058</v>
+        <v>-0.02532954333604265</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05174420486522906</v>
+        <v>-0.05033481593537732</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0407837318931118</v>
+        <v>0.04197530973744807</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04283438711894462</v>
+        <v>0.04400079237082333</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01855177436825278</v>
+        <v>0.01665921761601207</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.03266841040789101</v>
+        <v>0.02969260262194368</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09252236334084019</v>
+        <v>0.09302645289559468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0572978627138406</v>
+        <v>0.05659815099131524</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01774379581449669</v>
+        <v>0.02054981306518513</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04737969560632627</v>
+        <v>0.05225512699635903</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.02274979425452329</v>
+        <v>0.02163787350629259</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.09223637931008444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.139948037225748</v>
+        <v>-3.139948037225737</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6997251523504722</v>
@@ -1297,7 +1297,7 @@
         <v>2.417373724619343</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.06216454586502884</v>
+        <v>0.06216454586503994</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2995332545762452</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.643228027986432</v>
+        <v>-4.963575676097228</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.114634846376809</v>
+        <v>-2.81968369006702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.587714825229818</v>
+        <v>-6.282540812239273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.965569107010655</v>
+        <v>-3.235140345182752</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.706606630726312</v>
+        <v>-1.378680430020237</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.642375812838741</v>
+        <v>-3.707316507091395</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.810221355466792</v>
+        <v>-3.171577346106459</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.418678553134097</v>
+        <v>-1.336439845443892</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.998093103863225</v>
+        <v>-4.065296910081568</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.016003808627116</v>
+        <v>2.066180280066329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.435228354134747</v>
+        <v>3.504909365613783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4714367053594481</v>
+        <v>0.2607053790263156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.647658014558418</v>
+        <v>4.627738359941662</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.757297376731625</v>
+        <v>6.529670972471275</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.573246390480451</v>
+        <v>3.56014436635364</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.584186234226976</v>
+        <v>2.576287612770305</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.971640475047549</v>
+        <v>3.943775431898684</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.177432379849657</v>
+        <v>0.888915837443535</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.001097417419208211</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03735872653756071</v>
+        <v>-0.03735872653756058</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.009696894240604078</v>
@@ -1402,7 +1402,7 @@
         <v>0.0335003211888373</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0008614854343072686</v>
+        <v>0.0008614854343074224</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.003849442431989684</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05404889801541485</v>
+        <v>-0.05852655101572234</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03647580371606979</v>
+        <v>-0.03295500456560065</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07796580150274571</v>
+        <v>-0.07401661478097432</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03981602853787327</v>
+        <v>-0.04408559486946267</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02306095203452447</v>
+        <v>-0.01831793296205374</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04854499203799915</v>
+        <v>-0.04982033932557047</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03556800499607456</v>
+        <v>-0.04000378352135216</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01791008139377152</v>
+        <v>-0.01688108537304508</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05027057275816248</v>
+        <v>-0.05120427720499399</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02442340008687048</v>
+        <v>0.02504887639479717</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04164396182925363</v>
+        <v>0.04279163225238615</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.005016194219659584</v>
+        <v>0.003146053264998773</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06655810553270114</v>
+        <v>0.06606802175435908</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09657768081355546</v>
+        <v>0.09313540891618034</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05116473443277778</v>
+        <v>0.0509862551118314</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03382334559919434</v>
+        <v>0.03361527391589946</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05176666631591424</v>
+        <v>0.05229578905130013</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01533233300280597</v>
+        <v>0.01163719505825726</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.374770950508776</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.9691990210782042</v>
+        <v>0.9691990210782264</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.2970207997099239</v>
@@ -1520,7 +1520,7 @@
         <v>1.693802260807242</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.876441827123231</v>
+        <v>-0.8764418271232199</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.722628221167108</v>
+        <v>-2.88864085489619</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.73376569498446</v>
+        <v>-1.670524758181351</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.637442914877266</v>
+        <v>-4.593148181167868</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6465729781685726</v>
+        <v>-0.6925702741390104</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.22268726909344</v>
+        <v>1.183175074588791</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.045504166644385</v>
+        <v>-0.872634597415859</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.014184268480774</v>
+        <v>-1.13322185784184</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3508442115570128</v>
+        <v>0.2934912833438634</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.267265888717223</v>
+        <v>-2.278630119568907</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8914713927310932</v>
+        <v>0.6843529292768097</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.760501743386155</v>
+        <v>1.834226969289812</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.9154125275958658</v>
+        <v>-0.7473865882637319</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.796622360358631</v>
+        <v>3.713749422863735</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.495842349595094</v>
+        <v>5.715907040501462</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.038011884262367</v>
+        <v>3.170232681927632</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.825778004775709</v>
+        <v>1.944754091686524</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.163975933567038</v>
+        <v>3.186013814407791</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5377705363798596</v>
+        <v>0.5579760717311121</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04720619358437846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01355712647814225</v>
+        <v>0.01355712647814256</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.003824531868740072</v>
@@ -1625,7 +1625,7 @@
         <v>0.02180992284758447</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.01128533658990609</v>
+        <v>-0.01128533658990595</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03217433957670835</v>
+        <v>-0.03405780629033409</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02048869902038074</v>
+        <v>-0.01970963954673813</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05444758878983141</v>
+        <v>-0.05398176577702857</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.008731298046396115</v>
+        <v>-0.009258691063472737</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01712986973295655</v>
+        <v>0.01659101311388186</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01443440703581864</v>
+        <v>-0.01193730427161439</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01299104741514439</v>
+        <v>-0.01447724071076319</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.004508021105585153</v>
+        <v>0.0037850034955283</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.02893763572204559</v>
+        <v>-0.0292171855988454</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01072051568589563</v>
+        <v>0.008146553613739997</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02120625860225636</v>
+        <v>0.0222000965195623</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.0110138777435257</v>
+        <v>-0.008979185892102851</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05403437814755536</v>
+        <v>0.05314669607814954</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07832544239584843</v>
+        <v>0.08170366761636216</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04343368394140012</v>
+        <v>0.04531203727852026</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02364839691484991</v>
+        <v>0.02536413870646092</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04111454756863969</v>
+        <v>0.04142593589533126</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.006973243637475541</v>
+        <v>0.007280404770885363</v>
       </c>
     </row>
     <row r="34">
